--- a/member/design/テーブル定義書.xlsx
+++ b/member/design/テーブル定義書.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ytaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE0146F-3651-4BCD-B356-4E62A42B170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E94FA8-656D-4EE1-830B-7FE12948C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9825" yWindow="0" windowWidth="10545" windowHeight="8760" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="会員マスタ" sheetId="164" r:id="rId1"/>
-    <sheet name="都道府県マスタ" sheetId="166" r:id="rId2"/>
+    <sheet name="アカウントマスタ" sheetId="167" r:id="rId1"/>
+    <sheet name="会員マスタ" sheetId="164" r:id="rId2"/>
+    <sheet name="都道府県マスタ" sheetId="166" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>テーブル仕様書</t>
     <rPh sb="4" eb="6">
@@ -61,35 +62,20 @@
     <t>テーブル名</t>
   </si>
   <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>後安</t>
-  </si>
-  <si>
-    <t>作成日</t>
-  </si>
-  <si>
     <t>顧客管理</t>
   </si>
   <si>
-    <t>会員マスタ</t>
-  </si>
-  <si>
-    <t>members</t>
-  </si>
-  <si>
-    <t>修正者</t>
-  </si>
-  <si>
-    <t>修正日</t>
+    <t>アカウントマスタ</t>
+  </si>
+  <si>
+    <t>accounts</t>
   </si>
   <si>
     <t>内容説明</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会員情報を管理するマスタテーブル</t>
+    <t>アカウント情報を管理するマスタテーブル</t>
   </si>
   <si>
     <t>No</t>
@@ -151,13 +137,55 @@
     <t>〇</t>
   </si>
   <si>
+    <t>アカウント名</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>権限</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>後安</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>会員マスタ</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>修正者</t>
+  </si>
+  <si>
+    <t>修正日</t>
+  </si>
+  <si>
+    <t>会員情報を管理するマスタテーブル</t>
+  </si>
+  <si>
     <t>姓</t>
   </si>
   <si>
     <t>first_name</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
   </si>
   <si>
     <t>名</t>
@@ -408,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -887,6 +915,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -894,7 +935,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1035,12 +1076,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,6 +1121,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1071,30 +1181,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1124,15 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1487,11 +1564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4CA239-B5CD-487E-AE8F-6699D9D38377}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1514,106 +1591,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="68" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="D2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="71">
-        <v>45203</v>
-      </c>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="32" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="3"/>
@@ -1622,50 +1687,50 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="31.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="M6" s="64"/>
+      <c r="N6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="P6" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
@@ -1673,31 +1738,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="22"/>
       <c r="O7" s="18"/>
       <c r="P7" s="23"/>
@@ -1707,27 +1772,27 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" s="20">
         <v>50</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="22"/>
       <c r="O8" s="18"/>
       <c r="P8" s="23"/>
@@ -1737,27 +1802,27 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="20">
         <v>50</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="22"/>
       <c r="O9" s="18"/>
       <c r="P9" s="23"/>
@@ -1767,27 +1832,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="20">
+        <v>50</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="49"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="22"/>
       <c r="O10" s="18"/>
       <c r="P10" s="23"/>
@@ -1796,15 +1861,9 @@
       <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="19"/>
@@ -1812,8 +1871,8 @@
       <c r="I11" s="19"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="22"/>
       <c r="O11" s="18"/>
       <c r="P11" s="23"/>
@@ -1822,28 +1881,18 @@
       <c r="A12" s="26">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="20">
-        <v>7</v>
-      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="22"/>
       <c r="O12" s="18"/>
       <c r="P12" s="23"/>
@@ -1852,60 +1901,38 @@
       <c r="A13" s="26">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="49"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="O13" s="19"/>
       <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="20">
-        <v>255</v>
-      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="22"/>
       <c r="O14" s="18"/>
       <c r="P14" s="23"/>
@@ -1914,26 +1941,18 @@
       <c r="A15" s="26">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="20">
-        <v>255</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
       <c r="N15" s="22"/>
       <c r="O15" s="18"/>
       <c r="P15" s="23"/>
@@ -1942,28 +1961,18 @@
       <c r="A16" s="26">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="20">
-        <v>11</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="22"/>
       <c r="O16" s="18"/>
       <c r="P16" s="23"/>
@@ -1972,15 +1981,9 @@
       <c r="A17" s="26">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
       <c r="G17" s="19"/>
@@ -1988,8 +1991,8 @@
       <c r="I17" s="19"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
       <c r="N17" s="22"/>
       <c r="O17" s="18"/>
       <c r="P17" s="23"/>
@@ -1998,15 +2001,9 @@
       <c r="A18" s="26">
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="19"/>
@@ -2014,8 +2011,8 @@
       <c r="I18" s="19"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="22"/>
       <c r="O18" s="18"/>
       <c r="P18" s="23"/>
@@ -2024,15 +2021,9 @@
       <c r="A19" s="26">
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="19"/>
@@ -2040,10 +2031,8 @@
       <c r="I19" s="19"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="49"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="22"/>
       <c r="O19" s="18"/>
       <c r="P19" s="23"/>
@@ -2052,15 +2041,9 @@
       <c r="A20" s="26">
         <v>14</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
       <c r="G20" s="19"/>
@@ -2068,8 +2051,8 @@
       <c r="I20" s="19"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="22"/>
       <c r="O20" s="18"/>
       <c r="P20" s="23"/>
@@ -2078,15 +2061,9 @@
       <c r="A21" s="26">
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
       <c r="G21" s="19"/>
@@ -2094,8 +2071,8 @@
       <c r="I21" s="19"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="22"/>
       <c r="O21" s="18"/>
       <c r="P21" s="23"/>
@@ -2104,15 +2081,9 @@
       <c r="A22" s="26">
         <v>16</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
       <c r="G22" s="19"/>
@@ -2120,8 +2091,8 @@
       <c r="I22" s="19"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="22"/>
       <c r="O22" s="18"/>
       <c r="P22" s="23"/>
@@ -2130,15 +2101,9 @@
       <c r="A23" s="35">
         <v>17</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>39</v>
-      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
       <c r="G23" s="38"/>
@@ -2146,8 +2111,8 @@
       <c r="I23" s="38"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="41"/>
       <c r="O23" s="37"/>
       <c r="P23" s="42"/>
@@ -2164,8 +2129,8 @@
       <c r="I24" s="46"/>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
@@ -2182,8 +2147,8 @@
       <c r="I25" s="46"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
@@ -2200,8 +2165,8 @@
       <c r="I26" s="46"/>
       <c r="J26" s="45"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
@@ -2218,8 +2183,787 @@
       <c r="I27" s="46"/>
       <c r="J27" s="45"/>
       <c r="K27" s="45"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="4.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="4" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="86">
+        <v>45203</v>
+      </c>
+      <c r="P1" s="87"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="64"/>
+      <c r="N6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20">
+        <v>50</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="26">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20">
+        <v>50</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="26">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="26">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="26">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="26">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="20">
+        <v>255</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="26">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="20">
+        <v>255</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="26">
+        <v>10</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="20">
+        <v>11</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="26">
+        <v>11</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="26">
+        <v>12</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="26">
+        <v>13</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="26">
+        <v>14</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="26">
+        <v>15</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A22" s="26">
+        <v>16</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A23" s="35">
+        <v>17</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+    </row>
+    <row r="25" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+    </row>
+    <row r="26" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+    </row>
+    <row r="27" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
@@ -2265,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7238C9E1-D1DF-435C-9C49-BAA637F11302}">
   <dimension ref="A1:P27"/>
   <sheetViews>
@@ -2293,106 +3037,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="68" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="30" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="71">
+        <v>36</v>
+      </c>
+      <c r="O1" s="86">
         <v>45206</v>
       </c>
-      <c r="P1" s="72"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+        <v>80</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="33" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M2" s="34"/>
       <c r="N2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
+        <v>40</v>
+      </c>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="A3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="3"/>
@@ -2403,48 +3147,48 @@
     </row>
     <row r="6" spans="1:16" ht="31.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="M6" s="64"/>
+      <c r="N6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="P6" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1" ht="31.5" customHeight="1">
@@ -2452,31 +3196,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="22"/>
       <c r="O7" s="18"/>
       <c r="P7" s="23"/>
@@ -2486,13 +3230,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" s="20">
         <v>20</v>
@@ -2503,8 +3247,8 @@
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="22"/>
       <c r="O8" s="18"/>
       <c r="P8" s="23"/>
@@ -2514,13 +3258,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="20">
         <v>20</v>
@@ -2531,8 +3275,8 @@
       <c r="I9" s="38"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="41"/>
       <c r="O9" s="37"/>
       <c r="P9" s="42"/>
@@ -2549,8 +3293,8 @@
       <c r="I10" s="46"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="78"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
@@ -2567,8 +3311,8 @@
       <c r="I11" s="46"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
@@ -2585,8 +3329,8 @@
       <c r="I12" s="46"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
@@ -2603,8 +3347,8 @@
       <c r="I13" s="46"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
       <c r="P13" s="45"/>
@@ -2621,8 +3365,8 @@
       <c r="I14" s="46"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
@@ -2639,8 +3383,8 @@
       <c r="I15" s="46"/>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
@@ -2657,8 +3401,8 @@
       <c r="I16" s="46"/>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
@@ -2675,8 +3419,8 @@
       <c r="I17" s="46"/>
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
       <c r="P17" s="45"/>
@@ -2693,8 +3437,8 @@
       <c r="I18" s="46"/>
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
@@ -2711,8 +3455,8 @@
       <c r="I19" s="46"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
@@ -2729,8 +3473,8 @@
       <c r="I20" s="46"/>
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
@@ -2747,8 +3491,8 @@
       <c r="I21" s="46"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
       <c r="P21" s="45"/>
@@ -2765,8 +3509,8 @@
       <c r="I22" s="46"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
@@ -2783,8 +3527,8 @@
       <c r="I23" s="46"/>
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
       <c r="P23" s="45"/>
@@ -2803,8 +3547,8 @@
       <c r="I24" s="46"/>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
@@ -2823,8 +3567,8 @@
       <c r="I25" s="46"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
@@ -2843,8 +3587,8 @@
       <c r="I26" s="46"/>
       <c r="J26" s="45"/>
       <c r="K26" s="45"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
@@ -2863,8 +3607,8 @@
       <c r="I27" s="46"/>
       <c r="J27" s="45"/>
       <c r="K27" s="45"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
